--- a/biology/Médecine/Pierre_Bitôt/Pierre_Bitôt.xlsx
+++ b/biology/Médecine/Pierre_Bitôt/Pierre_Bitôt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Bit%C3%B4t</t>
+          <t>Pierre_Bitôt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre A. Bitôt[1], né le 22 mars 1822 à Podensac et mort le 2 février 1888 à Bordeaux[2], est un physicien, anatomiste et chirurgien français, connu pour la description de la tache de Bitôt[3].
-Pierre Bitôt est né le 22 mars 1822 à Podensac en Gironde. Il a fréquenté l'école de médecine de Bordeaux d'où il sort diplômé en 1846. Il a obtenu son doctorat en médecine en 1848 de la faculté de médecine de Paris[4].
-Il rejoint le département d'anatomie de la faculté de médecine de Bordeaux pour devenir professeur d'anatomie en 1854. En 1878, il est chirurgien des hôpitaux bordelais. Il meurt le 2 février 1888[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre A. Bitôt, né le 22 mars 1822 à Podensac et mort le 2 février 1888 à Bordeaux, est un physicien, anatomiste et chirurgien français, connu pour la description de la tache de Bitôt.
+Pierre Bitôt est né le 22 mars 1822 à Podensac en Gironde. Il a fréquenté l'école de médecine de Bordeaux d'où il sort diplômé en 1846. Il a obtenu son doctorat en médecine en 1848 de la faculté de médecine de Paris.
+Il rejoint le département d'anatomie de la faculté de médecine de Bordeaux pour devenir professeur d'anatomie en 1854. En 1878, il est chirurgien des hôpitaux bordelais. Il meurt le 2 février 1888.
 Il était chirurgien honoraire des hôpitaux de Bordeaux et professeur honoraire de la faculté.
-Pierre Bitôt a publié un large éventail de sujets, allant du bec de lièvre à l'étude de la meilleure forme de ligatures à utiliser dans les amputations de membres, l'utilisation de sulfate de quinine pour prévenir la fièvre après une transfusion sanguine, ainsi que certains aspects de l'anatomie cérébrale et de la fonction[4].
+Pierre Bitôt a publié un large éventail de sujets, allant du bec de lièvre à l'étude de la meilleure forme de ligatures à utiliser dans les amputations de membres, l'utilisation de sulfate de quinine pour prévenir la fièvre après une transfusion sanguine, ainsi que certains aspects de l'anatomie cérébrale et de la fonction.
 </t>
         </is>
       </c>
